--- a/data/speciation/matched_images.xlsx
+++ b/data/speciation/matched_images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\rodent_trapping\data\speciation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A69ADD-C6E9-4470-BF7A-922242BF7FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D96E0-2CCC-4DD7-83ED-ACF38DA9AED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{AB58223C-D331-454A-A089-211A4D5C0D03}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{AB58223C-D331-454A-A089-211A4D5C0D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$387</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="855">
   <si>
     <t>y</t>
   </si>
@@ -2601,6 +2600,9 @@
   </si>
   <si>
     <t>1_SEI_005b</t>
+  </si>
+  <si>
+    <t>photo_id_dorsal</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C384" sqref="C384"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3031,7 +3033,7 @@
         <v>226</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>225</v>
+        <v>854</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>225</v>
